--- a/MS.xlsx
+++ b/MS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C87DA2-0E94-4498-A715-8128DFA8BD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A52AA-2CEF-4C26-A05B-75C0747ABCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22290" yWindow="2160" windowWidth="21720" windowHeight="17280" xr2:uid="{C6EF291D-306B-4030-A552-CDA08CB64BFA}"/>
+    <workbookView xWindow="39100" yWindow="1840" windowWidth="24260" windowHeight="15020" activeTab="1" xr2:uid="{C6EF291D-306B-4030-A552-CDA08CB64BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Price</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Investment Management</t>
   </si>
   <si>
-    <t>Securities</t>
-  </si>
-  <si>
     <t>IB Advisory</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Borrowed</t>
-  </si>
-  <si>
     <t>Trading Liabilities</t>
   </si>
   <si>
@@ -160,6 +154,39 @@
   </si>
   <si>
     <t>Customer Payable</t>
+  </si>
+  <si>
+    <t>Securities for Resale</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>CIC</t>
   </si>
 </sst>
 </file>
@@ -201,11 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -545,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54873752-4633-4B9F-83DD-C96DC3ED78D7}">
-  <dimension ref="J2:K9"/>
+  <dimension ref="J2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -561,15 +587,18 @@
         <v>118.33</v>
       </c>
     </row>
-    <row r="3" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>1612.855585</v>
       </c>
-    </row>
-    <row r="4" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -577,33 +606,40 @@
         <f>+K2*K3</f>
         <v>190849.20137304999</v>
       </c>
-    </row>
-    <row r="5" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="10:11" x14ac:dyDescent="0.2">
+        <v>82261</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>190849.20137304999</v>
-      </c>
-    </row>
-    <row r="9" spans="10:11" x14ac:dyDescent="0.2">
+        <v>108588.20137304999</v>
+      </c>
+    </row>
+    <row r="9" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>6</v>
       </c>
@@ -618,13 +654,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55838C2-0CCB-49B7-8116-F909F3F8F58B}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -633,372 +669,487 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
         <v>2022</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2023</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2024</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>28400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
-        <v>3792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
-        <v>12230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1">
-        <v>8418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>5900</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>53668</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>54143</v>
-      </c>
-      <c r="E10" s="2">
-        <v>61761</v>
       </c>
       <c r="F10" s="2">
         <v>61761</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="G10" s="2">
+        <v>61761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>264</v>
+      </c>
+      <c r="G11" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3">
-        <v>264</v>
-      </c>
-      <c r="F11" s="3">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="1">
+        <v>26178</v>
+      </c>
+      <c r="G12" s="1">
+        <f>+F12*0.5</f>
+        <v>13089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3">
-        <v>26178</v>
-      </c>
-      <c r="F12" s="3">
-        <f>+E12*0.5</f>
-        <v>13089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="F13" s="1">
+        <v>4140</v>
+      </c>
+      <c r="G13" s="1">
+        <f>+F13</f>
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3">
-        <v>4140</v>
-      </c>
-      <c r="F13" s="3">
-        <f>+E13</f>
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="1">
+        <v>4088</v>
+      </c>
+      <c r="G14" s="1">
+        <f>+F14*0.5</f>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4088</v>
-      </c>
-      <c r="F14" s="3">
-        <f>+E14*0.5</f>
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>2901</v>
       </c>
-      <c r="F15" s="2">
-        <f>+E15*0.25</f>
+      <c r="G15" s="2">
+        <f>+F15*0.25</f>
         <v>725.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1905</v>
+      </c>
+      <c r="G16" s="1">
+        <f>+F16</f>
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3">
-        <v>1905</v>
-      </c>
-      <c r="F16" s="3">
-        <f>+E16</f>
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="F17" s="1">
+        <v>965</v>
+      </c>
+      <c r="G17" s="1">
+        <f>+F17*0.75</f>
+        <v>723.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="3">
-        <v>965</v>
-      </c>
-      <c r="F17" s="3">
-        <f>+E17*0.75</f>
-        <v>723.75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="F18" s="1">
         <v>3724</v>
       </c>
-      <c r="F18" s="3">
-        <f>+E18*0.9</f>
+      <c r="G18" s="1">
+        <f>+F18*0.9</f>
         <v>3351.6</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="3">
-        <f>SUM(E11:E18)</f>
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1">
+        <f>SUM(F11:F18)</f>
         <v>44165</v>
       </c>
-      <c r="F19" s="3">
-        <f>SUM(F11:F18)</f>
+      <c r="G19" s="1">
+        <f>SUM(G11:G18)</f>
         <v>26242.6</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:D20" si="0">+C10-C19</f>
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:E20" si="0">+D10-D19</f>
         <v>53668</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>54143</v>
       </c>
-      <c r="E20" s="2">
-        <f>+E10-E19</f>
-        <v>17596</v>
-      </c>
       <c r="F20" s="2">
         <f>+F10-F19</f>
+        <v>17596</v>
+      </c>
+      <c r="G20" s="2">
+        <f>+G10-G19</f>
         <v>35518.400000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>11029</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>9087</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>13990</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1">
+        <f>+F26+F27+F28+F29+F30+F31-F37-F38-F39-F40-F41-F42-F44</f>
+        <v>82261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E26">
-        <v>105386</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="F26" s="1">
+        <f>105386+98608+61071</f>
+        <v>265065</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1">
+        <v>331884</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1">
+        <v>118565</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27">
-        <v>331884</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <f>98608+61071</f>
-        <v>159679</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="F29" s="1">
+        <v>123859</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E29">
-        <v>123859</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="F30" s="1">
+        <f>225834+12319</f>
+        <v>238153</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1">
+        <v>86158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="1">
+        <f>16706+6453</f>
+        <v>23159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>28228</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E30">
-        <v>225834</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="F34" s="1">
+        <f>SUM(F26:F33)</f>
+        <v>1215071</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1">
+        <v>376007</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31">
-        <v>86158</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="F38" s="1">
+        <v>153764</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E32">
-        <v>123859</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="F39" s="1">
+        <v>50067</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E33">
-        <v>118565</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <f>SUM(E26:E33)</f>
-        <v>1275224</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37">
-        <v>376007</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="F40" s="1">
+        <v>15226</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38">
-        <v>153764</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39">
-        <v>50067</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40">
-        <v>15226</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="F41" s="1">
+        <v>21602</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E41">
-        <v>21602</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42">
+      <c r="F42" s="1">
         <v>175938</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="1">
+        <v>28220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43">
+      <c r="F44" s="1">
         <v>288819</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1">
+        <v>105428</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="1">
+        <f>SUM(F37:F45)</f>
+        <v>1215071</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-6397</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-33536</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-11632</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-3084</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-29460</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="1">
+        <v>22714</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-2726</v>
+      </c>
+      <c r="F51" s="1">
+        <v>46756</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-4283</v>
+      </c>
+      <c r="E52" s="1">
+        <v>451</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-2504</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="1">
+        <f>SUM(D49:D52)</f>
+        <v>402</v>
+      </c>
+      <c r="E53" s="1">
+        <f>SUM(E49:E52)</f>
+        <v>-38895</v>
+      </c>
+      <c r="F53" s="1">
+        <f>SUM(F49:F52)</f>
+        <v>16154</v>
       </c>
     </row>
   </sheetData>
